--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766992.2284948661</v>
+        <v>-769825.0412484987</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663198</v>
+        <v>67.9987028353161</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>26.60338682606177</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>146.1302711570659</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>68.85245950101191</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>104.1802207725909</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>58.71455538764438</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>16.03155909969715</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>274.5486409804986</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>311.7037250005663</v>
       </c>
       <c r="E5" t="n">
-        <v>311.7037250005661</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>311.7037250005661</v>
+        <v>311.7037250005663</v>
       </c>
       <c r="G5" t="n">
-        <v>23.41375906427103</v>
+        <v>311.7037250005663</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1348819162275</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>311.7037250005661</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>134.5398283281476</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.9338618814767</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.62114191027634</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>40.86244880925888</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>12.63555271305547</v>
+        <v>12.63555271305545</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>145.4994425154899</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.4828286776571</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8486416019134</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>122.9753107236449</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>69.63570668631655</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.809171723643</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>151.7198282633501</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>119.9102962366161</v>
       </c>
       <c r="J7" t="n">
-        <v>7.787414813789585</v>
+        <v>9.805380335196418</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>124.1550226335432</v>
       </c>
       <c r="S7" t="n">
-        <v>203.4209140738644</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.8960477158868</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>81.21470415643034</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>196.6997841156786</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>165.7456782260101</v>
       </c>
       <c r="X10" t="n">
-        <v>52.0063898146339</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1421,7 +1421,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
-        <v>148.9055307001851</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>319.4395745411791</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>13.13925136339812</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>127.6429814757075</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187843</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>69.82863813027149</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>26.07046444231891</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>83.29550035394</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>113.6427030833203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.2811815126420993</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2327,10 +2327,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8253826161909023</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>242.2547062148082</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261733</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545294</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652652</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>723.2302407601665</v>
+        <v>223.6564441302236</v>
       </c>
       <c r="C2" t="n">
-        <v>723.2302407601665</v>
+        <v>223.6564441302236</v>
       </c>
       <c r="D2" t="n">
-        <v>723.2302407601665</v>
+        <v>223.6564441302236</v>
       </c>
       <c r="E2" t="n">
-        <v>533.8104557436818</v>
+        <v>223.6564441302236</v>
       </c>
       <c r="F2" t="n">
-        <v>344.3906707271972</v>
+        <v>223.6564441302236</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513809</v>
+        <v>210.4263095544074</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
         <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="T2" t="n">
-        <v>723.2302407601665</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="U2" t="n">
-        <v>723.2302407601665</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="V2" t="n">
-        <v>723.2302407601665</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="W2" t="n">
-        <v>723.2302407601665</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="X2" t="n">
-        <v>723.2302407601665</v>
+        <v>413.0762291467086</v>
       </c>
       <c r="Y2" t="n">
-        <v>723.2302407601665</v>
+        <v>413.0762291467086</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>382.216431822439</v>
+        <v>325.3713899648685</v>
       </c>
       <c r="C3" t="n">
-        <v>382.216431822439</v>
+        <v>325.3713899648685</v>
       </c>
       <c r="D3" t="n">
-        <v>382.216431822439</v>
+        <v>325.3713899648685</v>
       </c>
       <c r="E3" t="n">
-        <v>382.216431822439</v>
+        <v>166.133934959413</v>
       </c>
       <c r="F3" t="n">
-        <v>235.681873849324</v>
+        <v>166.133934959413</v>
       </c>
       <c r="G3" t="n">
         <v>166.133934959413</v>
@@ -4404,55 +4404,55 @@
         <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017059</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843274</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389237</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="T3" t="n">
-        <v>571.6362168389237</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="U3" t="n">
-        <v>571.6362168389237</v>
+        <v>493.5867269849365</v>
       </c>
       <c r="V3" t="n">
-        <v>571.6362168389237</v>
+        <v>493.5867269849365</v>
       </c>
       <c r="W3" t="n">
-        <v>571.6362168389237</v>
+        <v>493.5867269849365</v>
       </c>
       <c r="X3" t="n">
-        <v>571.6362168389237</v>
+        <v>493.5867269849365</v>
       </c>
       <c r="Y3" t="n">
-        <v>382.216431822439</v>
+        <v>493.5867269849365</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.8700891107869</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="C4" t="n">
-        <v>244.8700891107869</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="D4" t="n">
-        <v>244.8700891107869</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="E4" t="n">
-        <v>244.8700891107869</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="F4" t="n">
-        <v>97.98014161287654</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="G4" t="n">
-        <v>97.98014161287654</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="H4" t="n">
-        <v>97.98014161287654</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818524</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884406</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830973</v>
+        <v>373.5399563830976</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777539</v>
+        <v>559.1902876777544</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143041</v>
+        <v>721.9284911143046</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R4" t="n">
-        <v>615.9383389575113</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S4" t="n">
-        <v>615.9383389575113</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="T4" t="n">
-        <v>615.9383389575113</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="U4" t="n">
-        <v>615.9383389575113</v>
+        <v>371.2627786323104</v>
       </c>
       <c r="V4" t="n">
-        <v>615.9383389575113</v>
+        <v>371.2627786323104</v>
       </c>
       <c r="W4" t="n">
-        <v>615.9383389575113</v>
+        <v>355.0692845922123</v>
       </c>
       <c r="X4" t="n">
-        <v>426.5185539410266</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="Y4" t="n">
-        <v>426.5185539410266</v>
+        <v>165.6494995757273</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>678.2910546317659</v>
+        <v>1246.814900002265</v>
       </c>
       <c r="C5" t="n">
-        <v>678.2910546317659</v>
+        <v>969.493040426004</v>
       </c>
       <c r="D5" t="n">
-        <v>678.2910546317659</v>
+        <v>654.6407929506844</v>
       </c>
       <c r="E5" t="n">
-        <v>363.4388071564465</v>
+        <v>654.6407929506844</v>
       </c>
       <c r="F5" t="n">
-        <v>48.58655968112714</v>
+        <v>339.7885454753649</v>
       </c>
       <c r="G5" t="n">
-        <v>24.93629800004529</v>
+        <v>24.9362980000453</v>
       </c>
       <c r="H5" t="n">
-        <v>24.93629800004529</v>
+        <v>24.9362980000453</v>
       </c>
       <c r="I5" t="n">
-        <v>24.93629800004529</v>
+        <v>24.9362980000453</v>
       </c>
       <c r="J5" t="n">
-        <v>67.07629257591316</v>
+        <v>67.07629257591339</v>
       </c>
       <c r="K5" t="n">
-        <v>180.9717390244268</v>
+        <v>180.9717390244271</v>
       </c>
       <c r="L5" t="n">
-        <v>359.1708735260484</v>
+        <v>359.1708735260487</v>
       </c>
       <c r="M5" t="n">
-        <v>589.1211834005339</v>
+        <v>589.1211834005345</v>
       </c>
       <c r="N5" t="n">
-        <v>827.4061380732694</v>
+        <v>827.40613807327</v>
       </c>
       <c r="O5" t="n">
-        <v>1039.076602557487</v>
+        <v>1039.076602557488</v>
       </c>
       <c r="P5" t="n">
-        <v>1185.231445966539</v>
+        <v>1185.23144596654</v>
       </c>
       <c r="Q5" t="n">
-        <v>1246.814900002264</v>
+        <v>1246.814900002265</v>
       </c>
       <c r="R5" t="n">
-        <v>1246.814900002264</v>
+        <v>1246.814900002265</v>
       </c>
       <c r="S5" t="n">
-        <v>1246.814900002264</v>
+        <v>1246.814900002265</v>
       </c>
       <c r="T5" t="n">
-        <v>1246.814900002264</v>
+        <v>1246.814900002265</v>
       </c>
       <c r="U5" t="n">
-        <v>993.1433021070852</v>
+        <v>1246.814900002265</v>
       </c>
       <c r="V5" t="n">
-        <v>993.1433021070852</v>
+        <v>1246.814900002265</v>
       </c>
       <c r="W5" t="n">
-        <v>993.1433021070852</v>
+        <v>1246.814900002265</v>
       </c>
       <c r="X5" t="n">
-        <v>678.2910546317659</v>
+        <v>1246.814900002265</v>
       </c>
       <c r="Y5" t="n">
-        <v>678.2910546317659</v>
+        <v>1246.814900002265</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.8351144931237</v>
+        <v>303.1357450717745</v>
       </c>
       <c r="C6" t="n">
-        <v>24.93629800004529</v>
+        <v>303.1357450717745</v>
       </c>
       <c r="D6" t="n">
-        <v>24.93629800004529</v>
+        <v>303.1357450717745</v>
       </c>
       <c r="E6" t="n">
-        <v>24.93629800004529</v>
+        <v>303.1357450717745</v>
       </c>
       <c r="F6" t="n">
-        <v>24.93629800004529</v>
+        <v>303.1357450717745</v>
       </c>
       <c r="G6" t="n">
-        <v>24.93629800004529</v>
+        <v>165.8288138783637</v>
       </c>
       <c r="H6" t="n">
-        <v>24.93629800004529</v>
+        <v>66.21149881747851</v>
       </c>
       <c r="I6" t="n">
-        <v>24.93629800004529</v>
+        <v>24.9362980000453</v>
       </c>
       <c r="J6" t="n">
-        <v>31.2167431245759</v>
+        <v>31.21674312457595</v>
       </c>
       <c r="K6" t="n">
-        <v>120.1058489019049</v>
+        <v>120.105848901905</v>
       </c>
       <c r="L6" t="n">
-        <v>285.9507623716604</v>
+        <v>285.9507623716605</v>
       </c>
       <c r="M6" t="n">
-        <v>498.8408221639207</v>
+        <v>498.8408221639208</v>
       </c>
       <c r="N6" t="n">
-        <v>731.7740932804859</v>
+        <v>764.8124758582746</v>
       </c>
       <c r="O6" t="n">
-        <v>922.6427339451353</v>
+        <v>1073.399163608835</v>
       </c>
       <c r="P6" t="n">
-        <v>1056.498579111843</v>
+        <v>1207.255008775543</v>
       </c>
       <c r="Q6" t="n">
-        <v>1246.814900002264</v>
+        <v>1246.814900002265</v>
       </c>
       <c r="R6" t="n">
         <v>1234.051715443623</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.051715443623</v>
+        <v>1087.082581589593</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.051715443623</v>
+        <v>890.6352798949902</v>
       </c>
       <c r="U6" t="n">
-        <v>1234.051715443623</v>
+        <v>662.5053388829565</v>
       </c>
       <c r="V6" t="n">
-        <v>998.89960721188</v>
+        <v>427.3532306512138</v>
       </c>
       <c r="W6" t="n">
-        <v>744.6622504836785</v>
+        <v>427.3532306512138</v>
       </c>
       <c r="X6" t="n">
-        <v>536.8107502781456</v>
+        <v>427.3532306512138</v>
       </c>
       <c r="Y6" t="n">
-        <v>329.0504515131917</v>
+        <v>303.1357450717745</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.9190129818654</v>
+        <v>548.0477962274415</v>
       </c>
       <c r="C7" t="n">
-        <v>182.9190129818654</v>
+        <v>477.7086985644955</v>
       </c>
       <c r="D7" t="n">
-        <v>32.80237356952972</v>
+        <v>477.7086985644955</v>
       </c>
       <c r="E7" t="n">
-        <v>32.80237356952972</v>
+        <v>477.7086985644955</v>
       </c>
       <c r="F7" t="n">
-        <v>32.80237356952972</v>
+        <v>477.7086985644955</v>
       </c>
       <c r="G7" t="n">
-        <v>32.80237356952972</v>
+        <v>309.2145857123309</v>
       </c>
       <c r="H7" t="n">
-        <v>32.80237356952972</v>
+        <v>155.9622339311691</v>
       </c>
       <c r="I7" t="n">
-        <v>32.80237356952972</v>
+        <v>34.84072258105179</v>
       </c>
       <c r="J7" t="n">
-        <v>24.93629800004529</v>
+        <v>24.9362980000453</v>
       </c>
       <c r="K7" t="n">
         <v>138.8210152489334</v>
@@ -4747,28 +4747,28 @@
         <v>1126.593983842055</v>
       </c>
       <c r="R7" t="n">
-        <v>1126.593983842055</v>
+        <v>1001.184870070799</v>
       </c>
       <c r="S7" t="n">
-        <v>921.1183130603736</v>
+        <v>1001.184870070799</v>
       </c>
       <c r="T7" t="n">
-        <v>921.1183130603736</v>
+        <v>776.0373471254588</v>
       </c>
       <c r="U7" t="n">
-        <v>921.1183130603736</v>
+        <v>776.0373471254588</v>
       </c>
       <c r="V7" t="n">
-        <v>921.1183130603736</v>
+        <v>776.0373471254588</v>
       </c>
       <c r="W7" t="n">
-        <v>631.7011430234129</v>
+        <v>776.0373471254588</v>
       </c>
       <c r="X7" t="n">
-        <v>403.7115921253956</v>
+        <v>548.0477962274415</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.9190129818654</v>
+        <v>548.0477962274415</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2480.304273696691</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2480.304273696691</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2480.304273696691</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2480.304273696691</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>2106.838515435611</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1716.6991834598</v>
       </c>
     </row>
     <row r="9">
@@ -4863,49 +4863,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>1209.25321078144</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.2533734782492</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="C10" t="n">
-        <v>348.2533734782492</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354876</v>
+        <v>854.3460182926831</v>
       </c>
       <c r="X10" t="n">
-        <v>750.694417452019</v>
+        <v>854.3460182926831</v>
       </c>
       <c r="Y10" t="n">
-        <v>529.9018383084889</v>
+        <v>633.553439149153</v>
       </c>
     </row>
     <row r="11">
@@ -5042,7 +5042,7 @@
         <v>372.3074987251948</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128767</v>
+        <v>841.9378825128779</v>
       </c>
       <c r="L11" t="n">
         <v>1461.457663018652</v>
@@ -5069,16 +5069,16 @@
         <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
         <v>3093.963640945778</v>
@@ -5118,22 +5118,22 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L12" t="n">
-        <v>372.2013186925058</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M12" t="n">
-        <v>964.2196729446335</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N12" t="n">
-        <v>1586.31563634397</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="O12" t="n">
-        <v>2133.192111344164</v>
+        <v>2200.595509637359</v>
       </c>
       <c r="P12" t="n">
         <v>2552.77562977024</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>964.7673076102598</v>
+        <v>873.8816814720478</v>
       </c>
       <c r="C13" t="n">
-        <v>795.8311246823529</v>
+        <v>704.9454985441409</v>
       </c>
       <c r="D13" t="n">
-        <v>645.7144852700171</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E13" t="n">
-        <v>497.801391687624</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F13" t="n">
-        <v>484.5294206134845</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
         <v>92.81162322608056</v>
@@ -5221,28 +5221,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="U13" t="n">
-        <v>2139.299560724894</v>
+        <v>2048.413934586682</v>
       </c>
       <c r="V13" t="n">
-        <v>1884.615072519008</v>
+        <v>1793.729446380795</v>
       </c>
       <c r="W13" t="n">
-        <v>1595.197902482047</v>
+        <v>1504.312276343835</v>
       </c>
       <c r="X13" t="n">
-        <v>1367.20835158403</v>
+        <v>1276.322725445817</v>
       </c>
       <c r="Y13" t="n">
-        <v>1146.415772440499</v>
+        <v>1055.530146302287</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797183</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745235</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.868625753638</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257311</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133953</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310022</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279801</v>
@@ -5455,31 +5455,31 @@
         <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.3616186032</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947398</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741511</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806533</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630031</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5510,19 +5510,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273905</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459582</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180513</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6251,7 +6251,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>94.65038286230612</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1732.759357061207</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6847,7 +6847,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,22 +7075,22 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,22 +7193,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7327,7 +7327,7 @@
         <v>151.3734194384027</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7400,61 +7400,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797183</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,22 +7573,22 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7637,61 +7637,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444888</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,19 +7828,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777601</v>
+        <v>46.5660510377764</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>50.08749654340247</v>
+        <v>50.08749654340244</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>33.37210361392786</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>118.9071182685971</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>152.2792218825248</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5240487471569</v>
+        <v>255.5240487471581</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071647</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399025</v>
+        <v>248.8951232709062</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,22 +22592,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>186.840494230145</v>
+        <v>25.91829388988668</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>105.4799366876597</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>50.29152613728908</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>50.29152613728996</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>132.2817966595331</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>158.5424700727129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>110.0033420516658</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>260.4525338942721</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>65.31997266427236</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.97276993489203</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.1398665102892</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>43.92976817443596</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-5.562217481057792e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>208611.1685410618</v>
+        <v>208611.1685410617</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="E2" t="n">
         <v>240803.9314914093</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="I2" t="n">
         <v>242143.9799070018</v>
@@ -26338,10 +26338,10 @@
         <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592848</v>
@@ -26350,7 +26350,7 @@
         <v>246312.5309592848</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592852</v>
+        <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
         <v>246312.5309592848</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>137458.1287555963</v>
+        <v>137458.1287555961</v>
       </c>
       <c r="D3" t="n">
-        <v>340841.9267294328</v>
+        <v>340841.9267294327</v>
       </c>
       <c r="E3" t="n">
         <v>495753.0386361763</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.2631150406</v>
+        <v>11452.26311504109</v>
       </c>
       <c r="G3" t="n">
-        <v>6.549796580657131e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>31959.4789781243</v>
+        <v>31959.47897812428</v>
       </c>
       <c r="L3" t="n">
-        <v>83236.84827691263</v>
+        <v>83236.84827691264</v>
       </c>
       <c r="M3" t="n">
         <v>148904.2624253759</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205741.8605227619</v>
+        <v>205741.8605227617</v>
       </c>
       <c r="C4" t="n">
-        <v>240654.3288590031</v>
+        <v>240654.328859003</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
@@ -26433,31 +26433,31 @@
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184277</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
+        <v>21597.66737493622</v>
+      </c>
+      <c r="N4" t="n">
         <v>21597.66737493627</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>21597.66737493622</v>
       </c>
-      <c r="O4" t="n">
-        <v>21597.66737493632</v>
-      </c>
       <c r="P4" t="n">
-        <v>21597.66737493632</v>
+        <v>21597.66737493623</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>66866.16641438022</v>
+        <v>66866.16641438023</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-645473.394914159</v>
+        <v>-645787.5729343111</v>
       </c>
       <c r="C6" t="n">
-        <v>-198666.0930696946</v>
+        <v>-198666.0930696944</v>
       </c>
       <c r="D6" t="n">
-        <v>-332622.3989079308</v>
+        <v>-332622.3989079306</v>
       </c>
       <c r="E6" t="n">
-        <v>-368691.5111492227</v>
+        <v>-368737.4161447885</v>
       </c>
       <c r="F6" t="n">
-        <v>115962.3788562113</v>
+        <v>115927.6409307751</v>
       </c>
       <c r="G6" t="n">
-        <v>127414.6419712512</v>
+        <v>127379.9040458162</v>
       </c>
       <c r="H6" t="n">
-        <v>127414.6419712521</v>
+        <v>127379.9040458163</v>
       </c>
       <c r="I6" t="n">
-        <v>127414.6419712519</v>
+        <v>127379.9040458162</v>
       </c>
       <c r="J6" t="n">
-        <v>78349.69724270738</v>
+        <v>78314.95931727157</v>
       </c>
       <c r="K6" t="n">
-        <v>95455.16299312758</v>
+        <v>95420.42506769195</v>
       </c>
       <c r="L6" t="n">
-        <v>44177.79369433927</v>
+        <v>44143.05576890364</v>
       </c>
       <c r="M6" t="n">
-        <v>-27353.51469494276</v>
+        <v>-27353.51469494271</v>
       </c>
       <c r="N6" t="n">
-        <v>118473.7303747286</v>
+        <v>118473.7303747285</v>
       </c>
       <c r="O6" t="n">
-        <v>121550.7477304335</v>
+        <v>121550.7477304334</v>
       </c>
       <c r="P6" t="n">
-        <v>121550.7477304331</v>
+        <v>121550.7477304332</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>655.3660520342108</v>
+        <v>655.366052034211</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>311.7037250005661</v>
+        <v>311.7037250005663</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>106.8961111213064</v>
+        <v>106.8961111213061</v>
       </c>
       <c r="D3" t="n">
-        <v>278.6988400833285</v>
+        <v>278.6988400833283</v>
       </c>
       <c r="E3" t="n">
-        <v>423.9761565988465</v>
+        <v>423.9761565988466</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625287466</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1781378342463</v>
+        <v>124.1781378342462</v>
       </c>
       <c r="D4" t="n">
-        <v>328.8811070994726</v>
+        <v>328.8811070994727</v>
       </c>
       <c r="E4" t="n">
-        <v>519.5604582259682</v>
+        <v>519.560458225968</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364097</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1781378342463</v>
+        <v>124.1781378342462</v>
       </c>
       <c r="L4" t="n">
-        <v>328.8811070994726</v>
+        <v>328.8811070994727</v>
       </c>
       <c r="M4" t="n">
         <v>519.560458225968</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1781378342463</v>
+        <v>124.1781378342462</v>
       </c>
       <c r="L4" t="n">
-        <v>328.8811070994726</v>
+        <v>328.8811070994727</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259682</v>
+        <v>519.560458225968</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364097</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27436,13 +27436,13 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>222.2723217824752</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>223.6008295214031</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,13 +27464,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>67.31132986476342</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>121.6835476375001</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098452</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27555,7 +27555,7 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>66.99266438322229</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713019</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>270.4914392368938</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271731</v>
+        <v>38.18406822271706</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>90.72425079050896</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>42.97931662011666</v>
       </c>
       <c r="E5" t="n">
-        <v>70.22664507169566</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>95.17232074114531</v>
+        <v>95.17232074114514</v>
       </c>
       <c r="G5" t="n">
-        <v>389.2543410557516</v>
+        <v>100.9643751194563</v>
       </c>
       <c r="H5" t="n">
         <v>312.4928218930722</v>
@@ -27670,7 +27670,7 @@
         <v>211.5627243670268</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1348819162275</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>58.02737567790291</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>38.16867066016815</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9338618814767</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.62114191027635</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>40.86244880925889</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>145.4994425154899</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.4828286776571</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8486416019134</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>82.70738505365945</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>97.61111441231128</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.809171723643</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>151.7198282633501</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>119.9102962366161</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.017965521406847</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>124.1550226335432</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>203.4209140738644</v>
       </c>
       <c r="T7" t="n">
-        <v>222.8960477158868</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2545671218646</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>125.4434808238034</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>173.0313165627905</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>120.7773201105809</v>
       </c>
       <c r="X10" t="n">
-        <v>173.7032655744032</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -29047,10 +29047,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30694,10 +30694,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.634637395112403</v>
+        <v>2.634637395112404</v>
       </c>
       <c r="H5" t="n">
         <v>26.98198022269491</v>
@@ -31288,22 +31288,22 @@
         <v>223.6115556134216</v>
       </c>
       <c r="K5" t="n">
-        <v>335.1357565485296</v>
+        <v>335.1357565485297</v>
       </c>
       <c r="L5" t="n">
-        <v>415.7655407292009</v>
+        <v>415.765540729201</v>
       </c>
       <c r="M5" t="n">
-        <v>462.6192735045311</v>
+        <v>462.6192735045312</v>
       </c>
       <c r="N5" t="n">
-        <v>470.1049370033943</v>
+        <v>470.1049370033944</v>
       </c>
       <c r="O5" t="n">
-        <v>443.9067614057453</v>
+        <v>443.9067614057454</v>
       </c>
       <c r="P5" t="n">
-        <v>378.8641507139078</v>
+        <v>378.8641507139079</v>
       </c>
       <c r="Q5" t="n">
         <v>284.5111990014448</v>
@@ -31312,13 +31312,13 @@
         <v>165.4980412707297</v>
       </c>
       <c r="S5" t="n">
-        <v>60.03679964112395</v>
+        <v>60.03679964112396</v>
       </c>
       <c r="T5" t="n">
         <v>11.53312519710455</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2107709916089922</v>
+        <v>0.2107709916089923</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,22 +31361,22 @@
         <v>13.61430232622012</v>
       </c>
       <c r="I6" t="n">
-        <v>48.53418404215618</v>
+        <v>48.5341840421562</v>
       </c>
       <c r="J6" t="n">
-        <v>133.181510630839</v>
+        <v>133.1815106308391</v>
       </c>
       <c r="K6" t="n">
         <v>227.6284145070146</v>
       </c>
       <c r="L6" t="n">
-        <v>306.0744943957888</v>
+        <v>306.0744943957889</v>
       </c>
       <c r="M6" t="n">
         <v>357.1744983586449</v>
       </c>
       <c r="N6" t="n">
-        <v>366.6278445243082</v>
+        <v>366.6278445243083</v>
       </c>
       <c r="O6" t="n">
         <v>335.3928511764136</v>
@@ -31388,16 +31388,16 @@
         <v>179.9412601736196</v>
       </c>
       <c r="R6" t="n">
-        <v>87.52228143958766</v>
+        <v>87.52228143958769</v>
       </c>
       <c r="S6" t="n">
         <v>26.18372858834794</v>
       </c>
       <c r="T6" t="n">
-        <v>5.681900017164524</v>
+        <v>5.681900017164525</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09274047906144497</v>
+        <v>0.09274047906144499</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,13 +31437,13 @@
         <v>1.18180763481579</v>
       </c>
       <c r="H7" t="n">
-        <v>10.50734424408948</v>
+        <v>10.50734424408949</v>
       </c>
       <c r="I7" t="n">
-        <v>35.54017869064213</v>
+        <v>35.54017869064214</v>
       </c>
       <c r="J7" t="n">
-        <v>83.55379978147634</v>
+        <v>83.55379978147636</v>
       </c>
       <c r="K7" t="n">
         <v>137.3045597540527</v>
@@ -31455,7 +31455,7 @@
         <v>185.2537186102606</v>
       </c>
       <c r="N7" t="n">
-        <v>180.8487992441291</v>
+        <v>180.8487992441292</v>
       </c>
       <c r="O7" t="n">
         <v>167.0431373283265</v>
@@ -31464,19 +31464,19 @@
         <v>142.9342615780842</v>
       </c>
       <c r="Q7" t="n">
-        <v>98.96027385716583</v>
+        <v>98.96027385716584</v>
       </c>
       <c r="R7" t="n">
-        <v>53.13836874362632</v>
+        <v>53.13836874362633</v>
       </c>
       <c r="S7" t="n">
-        <v>20.59568396310789</v>
+        <v>20.5956839631079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.049541712394737</v>
+        <v>5.049541712394738</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06446223462631588</v>
+        <v>0.0644622346263159</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>420.7661933823239</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>489.7119024980487</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179115</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,13 +33737,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159409</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068212</v>
+        <v>28.45844197068258</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>42.56565108673527</v>
+        <v>42.5656510867353</v>
       </c>
       <c r="K5" t="n">
         <v>115.0459055035491</v>
       </c>
       <c r="L5" t="n">
-        <v>179.9991257592137</v>
+        <v>179.9991257592138</v>
       </c>
       <c r="M5" t="n">
-        <v>232.2730402772584</v>
+        <v>232.2730402772585</v>
       </c>
       <c r="N5" t="n">
         <v>240.6918734068034</v>
       </c>
       <c r="O5" t="n">
-        <v>213.8085499840586</v>
+        <v>213.8085499840587</v>
       </c>
       <c r="P5" t="n">
         <v>147.6311549586383</v>
       </c>
       <c r="Q5" t="n">
-        <v>62.20550912699528</v>
+        <v>62.20550912699534</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.343883964172335</v>
+        <v>6.343883964172363</v>
       </c>
       <c r="K6" t="n">
-        <v>89.78697553265556</v>
+        <v>89.78697553265559</v>
       </c>
       <c r="L6" t="n">
-        <v>167.5201146159146</v>
+        <v>167.5201146159147</v>
       </c>
       <c r="M6" t="n">
         <v>215.0404644366266</v>
       </c>
       <c r="N6" t="n">
-        <v>235.2861324409749</v>
+        <v>268.6582360549028</v>
       </c>
       <c r="O6" t="n">
-        <v>192.7966067319691</v>
+        <v>311.7037250005663</v>
       </c>
       <c r="P6" t="n">
-        <v>135.2079244108157</v>
+        <v>135.2079244108158</v>
       </c>
       <c r="Q6" t="n">
-        <v>192.2387079701228</v>
+        <v>39.95948608759809</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,16 +35103,16 @@
         <v>224.8375955721012</v>
       </c>
       <c r="N7" t="n">
-        <v>224.9809716233577</v>
+        <v>224.9809716233578</v>
       </c>
       <c r="O7" t="n">
-        <v>191.6282652423661</v>
+        <v>191.6282652423662</v>
       </c>
       <c r="P7" t="n">
         <v>140.2128208429777</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.79823060547145</v>
+        <v>12.79823060547146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
@@ -35258,13 +35258,13 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>622.4553810291975</v>
+        <v>622.4553810291986</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35273,7 +35273,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>282.2118136024497</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394754</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193501</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
